--- a/Jogos_do_Dia/2023-08-16_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-08-16_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -697,7 +697,7 @@
         <v>3.4</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AF2">
         <v>1.62</v>
@@ -709,7 +709,7 @@
         <v>2.5</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-08-16_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-08-16_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -625,13 +625,13 @@
         <v>38</v>
       </c>
       <c r="G2">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H2">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I2">
-        <v>3.57</v>
+        <v>3.75</v>
       </c>
       <c r="J2">
         <v>1.06</v>
@@ -646,10 +646,10 @@
         <v>3.2</v>
       </c>
       <c r="N2">
-        <v>1.86</v>
+        <v>2.03</v>
       </c>
       <c r="O2">
-        <v>1.69</v>
+        <v>1.83</v>
       </c>
       <c r="P2">
         <v>1.4</v>
